--- a/TestFile.xlsx
+++ b/TestFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/712bd6a6068443d3/SoloTravel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susan Conway\Documents\GitHub\Solo_Travel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104BCB93-736D-4306-9E15-6A416D92725E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FBB449-C23B-44AB-985D-79BB34C255ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1155" windowWidth="20205" windowHeight="12525" xr2:uid="{1C9678B5-DCDC-4E85-B5FB-43E75CF5E17C}"/>
+    <workbookView xWindow="315" yWindow="368" windowWidth="20205" windowHeight="12525" xr2:uid="{1C9678B5-DCDC-4E85-B5FB-43E75CF5E17C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Test file</t>
+  </si>
+  <si>
+    <t>test row</t>
   </si>
 </sst>
 </file>
@@ -385,17 +388,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3032567F-B4E3-47CC-8684-A38880176217}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
